--- a/biology/Botanique/Vanda_(pomme)/Vanda_(pomme).xlsx
+++ b/biology/Botanique/Vanda_(pomme)/Vanda_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Vanda est un cultivar de pommier domestique.
 Nom botanique : Malus domestica Borkh vanda
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Station de botanique expérimentale, Strizovice, République Tchèque.
 </t>
@@ -543,9 +557,11 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le cultivar Vanda résulte du croisement Jolana × Lord Lambourne[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le cultivar Vanda résulte du croisement Jolana × Lord Lambourne.
 Descendant(s) :
 Karneval = Vanda x Cripps Pink (résistant aux races communes de tavelure)
 Topaz = Rubin x Vanda
@@ -579,9 +595,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>S-génotype : S5S7[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>S-génotype : S5S7.</t>
         </is>
       </c>
     </row>
@@ -609,7 +627,9 @@
           <t>Maladies</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété Vanda possède le gène Vf de résistance aux races communes de tavelure du pommier.
 </t>
@@ -640,7 +660,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Facile à cultiver dans un jardin domestique car le traitement phytosanitaire peut en général être réduit à une pulvérisation de printemps.
 </t>
